--- a/Время сортировки.xlsx
+++ b/Время сортировки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fhvyg\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programms\nu tupa ucheba\алгоритмы\Labs_po_algoritmam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74764980-C5C5-4811-9F49-57A152B0BDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506CD73-E4AF-4CC8-8116-FD1323B526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D242549C-D3B9-4851-9A21-BF61DBC7D614}"/>
   </bookViews>
@@ -34,27 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Размер</t>
   </si>
   <si>
     <t>Время</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Возрастающая</t>
-  </si>
-  <si>
-    <t>Убывающая</t>
-  </si>
-  <si>
-    <t>Случайная</t>
-  </si>
-  <si>
-    <t>Домик</t>
   </si>
   <si>
     <t>shell</t>
@@ -63,10 +48,28 @@
     <t>qs</t>
   </si>
   <si>
-    <t>qsort(standart)</t>
+    <t>qsort</t>
   </si>
   <si>
-    <t>0,023(для 5к элементов)</t>
+    <t>25000 элементов</t>
+  </si>
+  <si>
+    <t>случайные</t>
+  </si>
+  <si>
+    <t>возрастающие</t>
+  </si>
+  <si>
+    <t>убывающие</t>
+  </si>
+  <si>
+    <t>домик</t>
+  </si>
+  <si>
+    <t>35000 элементов</t>
+  </si>
+  <si>
+    <t>50000 элементов</t>
   </si>
 </sst>
 </file>
@@ -168,62 +171,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -277,6 +225,58 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-76E9-488A-B3B2-5299F3A019F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ewgsd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB09-4DA7-AFE6-DAC92DD34D24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,15 +1346,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6196B3-48B1-4472-9B2D-A823CEB54857}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1407,74 +1407,232 @@
         <v>82.867000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B1^3/A6</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C3">
+        <f>C1^3/A6</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <f>D1^3/A6</f>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="E3">
+        <f>E1^3/A6</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f>F1^3/A6</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>125000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="B14">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.244</v>
+      </c>
+      <c r="D14">
+        <v>0.753</v>
+      </c>
+      <c r="E14">
+        <v>2.3730000000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B15">
+        <v>1E-3</v>
+      </c>
+      <c r="C15">
+        <v>1E-3</v>
+      </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
+      <c r="E15">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="B20">
-        <v>3.7280000000000002</v>
-      </c>
-      <c r="C20">
-        <v>1.202</v>
-      </c>
-      <c r="D20">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="E20">
-        <v>2.496</v>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>2E-3</v>
+        <v>6.9050000000000002</v>
       </c>
       <c r="C21">
-        <v>1E-3</v>
+        <v>2.6230000000000002</v>
       </c>
       <c r="D21">
-        <v>1E-3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E21">
+        <v>6.2080000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C22">
+        <v>2E-3</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E22">
-        <v>1.2E-2</v>
+      <c r="C23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="D26">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="E26">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C27">
+        <v>2E-3</v>
+      </c>
+      <c r="D27">
+        <v>2E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.5289999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
